--- a/Posicion_Balizas.xlsx
+++ b/Posicion_Balizas.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_1F7999EC7F6B1843DF35572CED8E9DF03373FA90" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{91E65E4C-A785-432C-83BB-99DBEFB8321E}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cacha\Documents\MASTER\2ºCurso\1 Cuatri\Guiado y Navegación\TRABAJO\GITHUB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF71B552-88D0-46C1-A92A-3C07B5C9372B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>Nombre de la Baliza</t>
   </si>
@@ -89,16 +94,133 @@
   </si>
   <si>
     <t>LM 17:</t>
+  </si>
+  <si>
+    <t>10.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55 </t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>6.75</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>20.3</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>23.6</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>22.3</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>LM 18:</t>
+  </si>
+  <si>
+    <t>LM 19:</t>
+  </si>
+  <si>
+    <t>LM 20:</t>
+  </si>
+  <si>
+    <t>LM 21:</t>
+  </si>
+  <si>
+    <t>LM 22:</t>
+  </si>
+  <si>
+    <t>LM 23:</t>
+  </si>
+  <si>
+    <t>LM 24:</t>
+  </si>
+  <si>
+    <t>LM 25:</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>12.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,8 +246,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,8 +269,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B276CE1-18E9-4AB3-9C81-9F53EC04CDF8}" name="Tabla1" displayName="Tabla1" ref="A1:D18" totalsRowShown="0">
-  <autoFilter ref="A1:D18" xr:uid="{C0E3C92B-E9BA-4AE6-964F-19E71F1F8ED8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B276CE1-18E9-4AB3-9C81-9F53EC04CDF8}" name="Tabla1" displayName="Tabla1" ref="A1:D26" totalsRowShown="0">
+  <autoFilter ref="A1:D26" xr:uid="{C0E3C92B-E9BA-4AE6-964F-19E71F1F8ED8}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D851CA1A-1C2F-41B2-B1C0-8081DBE9CC8E}" name="Nombre de la Baliza"/>
     <tableColumn id="2" xr3:uid="{10052559-B368-4043-8709-6E9BA224A18F}" name="X"/>
@@ -157,7 +282,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -453,18 +578,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B2" sqref="B2:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,92 +603,322 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="1">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -572,12 +927,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,19 +1089,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3C161EA-027E-46D5-86AA-D09C5BC1632E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{293788E5-653A-4F40-98E2-B64D9809623A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866EB587-322E-48EC-BC4E-31E5733649E6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866EB587-322E-48EC-BC4E-31E5733649E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="86abb9a5-2e62-43fb-99c2-51636a65f06a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{293788E5-653A-4F40-98E2-B64D9809623A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3C161EA-027E-46D5-86AA-D09C5BC1632E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Posicion_Balizas.xlsx
+++ b/Posicion_Balizas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cacha\Documents\MASTER\2ºCurso\1 Cuatri\Guiado y Navegación\TRABAJO\GITHUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF71B552-88D0-46C1-A92A-3C07B5C9372B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7963FE05-B2EC-49E3-8C00-4F5A5C6ABB3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D22"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Posicion_Balizas.xlsx
+++ b/Posicion_Balizas.xlsx
@@ -5,33 +5,22 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cacha\Documents\MASTER\2ºCurso\1 Cuatri\Guiado y Navegación\TRABAJO\GITHUB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerko\Desktop\Master\GNR\robotJardinero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7963FE05-B2EC-49E3-8C00-4F5A5C6ABB3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EBD192-E4D1-481A-BF41-8B12640BD0E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9750" yWindow="-10095" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
     <t>Nombre de la Baliza</t>
   </si>
@@ -205,6 +194,24 @@
   </si>
   <si>
     <t>12.4</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>7.2</t>
   </si>
 </sst>
 </file>
@@ -581,7 +588,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,11 +894,11 @@
       <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>23</v>
@@ -901,20 +908,48 @@
       <c r="A23" t="s">
         <v>49</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>50</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>52</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -927,12 +962,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100681D9EA2EA53234693ABE7ED0B1BBD91" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8e15ced9fe71cb93d40cbb5cf5d0a7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="86abb9a5-2e62-43fb-99c2-51636a65f06a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="68d70a80704eaf3487fe7b7230d6f4bd" ns2:_="">
     <xsd:import namespace="86abb9a5-2e62-43fb-99c2-51636a65f06a"/>
@@ -1088,6 +1117,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1098,15 +1133,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{293788E5-653A-4F40-98E2-B64D9809623A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866EB587-322E-48EC-BC4E-31E5733649E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1124,6 +1150,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{293788E5-653A-4F40-98E2-B64D9809623A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3C161EA-027E-46D5-86AA-D09C5BC1632E}">
   <ds:schemaRefs>

--- a/Posicion_Balizas.xlsx
+++ b/Posicion_Balizas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerko\Desktop\Master\GNR\robotJardinero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EBD192-E4D1-481A-BF41-8B12640BD0E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FA4EF6-09DA-469A-9022-6FE7FD5FE6D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9750" yWindow="-10095" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>Nombre de la Baliza</t>
   </si>
@@ -94,12 +94,6 @@
     <t>0.2</t>
   </si>
   <si>
-    <t>13.5</t>
-  </si>
-  <si>
-    <t>26.5</t>
-  </si>
-  <si>
     <t>9.2</t>
   </si>
   <si>
@@ -212,6 +206,15 @@
   </si>
   <si>
     <t>7.2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>26.4</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,11 +631,11 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>23</v>
@@ -642,11 +645,11 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>23</v>
@@ -657,10 +660,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
@@ -671,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>23</v>
@@ -685,10 +688,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
@@ -699,10 +702,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
@@ -713,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -727,10 +730,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
@@ -741,10 +744,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
@@ -755,10 +758,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -769,10 +772,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>23</v>
@@ -783,10 +786,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>23</v>
@@ -797,10 +800,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>23</v>
@@ -814,7 +817,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>23</v>
@@ -825,10 +828,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
@@ -839,10 +842,10 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
@@ -850,13 +853,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>23</v>
@@ -864,13 +867,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>23</v>
@@ -878,13 +881,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
@@ -892,13 +895,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>23</v>
@@ -906,13 +909,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>23</v>
@@ -920,13 +923,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>23</v>
@@ -934,7 +937,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -944,7 +947,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -962,6 +965,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100681D9EA2EA53234693ABE7ED0B1BBD91" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8e15ced9fe71cb93d40cbb5cf5d0a7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="86abb9a5-2e62-43fb-99c2-51636a65f06a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="68d70a80704eaf3487fe7b7230d6f4bd" ns2:_="">
     <xsd:import namespace="86abb9a5-2e62-43fb-99c2-51636a65f06a"/>
@@ -1117,12 +1126,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1133,6 +1136,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{293788E5-653A-4F40-98E2-B64D9809623A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866EB587-322E-48EC-BC4E-31E5733649E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1150,15 +1162,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{293788E5-653A-4F40-98E2-B64D9809623A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3C161EA-027E-46D5-86AA-D09C5BC1632E}">
   <ds:schemaRefs>
